--- a/backend/src/excel_handler/files/AL30.xlsx
+++ b/backend/src/excel_handler/files/AL30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,52 +436,215 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>30-06-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Adcap Wise Capital Growth</t>
+          <t>Adcap Balanceado V</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15956.15</v>
+        <v>7832.07</v>
       </c>
       <c r="C2" t="n">
-        <v>19635.37</v>
-      </c>
+        <v>7880.92</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15956.15</v>
+        <v>500.82</v>
       </c>
       <c r="C3" t="n">
-        <v>19635.37</v>
+        <v>504.31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>504.15</v>
+      </c>
+      <c r="E3" t="n">
+        <v>497.66</v>
+      </c>
+      <c r="F3" t="n">
+        <v>494.85</v>
+      </c>
+      <c r="G3" t="n">
+        <v>490.85</v>
+      </c>
+      <c r="H3" t="n">
+        <v>483.72</v>
+      </c>
+      <c r="I3" t="n">
+        <v>482.02</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1779.29</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1776.12</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1765.27</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1768.89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4166.44</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4192.61</v>
+      </c>
+      <c r="D4" t="n">
+        <v>504.15</v>
+      </c>
+      <c r="E4" t="n">
+        <v>497.66</v>
+      </c>
+      <c r="F4" t="n">
+        <v>494.85</v>
+      </c>
+      <c r="G4" t="n">
+        <v>490.85</v>
+      </c>
+      <c r="H4" t="n">
+        <v>483.72</v>
+      </c>
+      <c r="I4" t="n">
+        <v>482.02</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1779.29</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1776.12</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1765.27</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1768.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>15956.15</v>
-      </c>
-      <c r="C4" t="n">
-        <v>19635.37</v>
+      <c r="B5" t="n">
+        <v>8332.889999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8385.23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>504.15</v>
+      </c>
+      <c r="E5" t="n">
+        <v>497.66</v>
+      </c>
+      <c r="F5" t="n">
+        <v>494.85</v>
+      </c>
+      <c r="G5" t="n">
+        <v>490.85</v>
+      </c>
+      <c r="H5" t="n">
+        <v>483.72</v>
+      </c>
+      <c r="I5" t="n">
+        <v>482.02</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1779.29</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1776.12</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1765.27</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1768.89</v>
       </c>
     </row>
   </sheetData>
